--- a/case3_Borate/Excel_Files/SMB DATA JULY 1OTH 2025.xlsx
+++ b/case3_Borate/Excel_Files/SMB DATA JULY 1OTH 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stellenbosch-my.sharepoint.com/personal/28830040_sun_ac_za/Documents/Desktop/MONTHLY ACTIVITIES/6th THESIS CHAPTERS/RESULTS AND DISCUSSION/SMB COMMISSIONING AND TESTING/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28820169\Downloads\BO_Papers\MEng_Code\case3_Borate\Excel_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="263" documentId="8_{F861D1EC-5D3F-4BD9-8BB5-9033BB3DD90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38F0BBAC-B210-4C71-9174-DE67C70ED04B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0861C15-8B9F-48F2-B7AE-CD57CFE16784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3105" yWindow="4425" windowWidth="15375" windowHeight="7875" firstSheet="2" activeTab="4" xr2:uid="{D677597E-54BA-41B3-A4D9-877FC457E93C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{D677597E-54BA-41B3-A4D9-877FC457E93C}"/>
   </bookViews>
   <sheets>
     <sheet name="GLUCOMETER CALIBRATION" sheetId="6" r:id="rId1"/>
@@ -182,9 +182,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -415,9 +416,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -613,10 +614,10 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -626,13 +627,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -680,6 +681,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3812,7 +3814,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -15825,16 +15827,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>89534</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>586739</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16362,10 +16364,6 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -16689,19 +16687,19 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -16714,7 +16712,7 @@
       <c r="J1" s="18"/>
       <c r="K1" s="18"/>
     </row>
-    <row r="2" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="18"/>
       <c r="B2" s="19" t="s">
         <v>0</v>
@@ -16748,7 +16746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="18"/>
       <c r="B3" s="20">
         <v>0</v>
@@ -16796,7 +16794,7 @@
         <v>-0.10438620000000043</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A4" s="18"/>
       <c r="B4" s="24">
         <v>1</v>
@@ -16844,7 +16842,7 @@
         <v>3.2194920000000025</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A5" s="18"/>
       <c r="B5" s="24">
         <v>2</v>
@@ -16892,7 +16890,7 @@
         <v>6.9126900000000049</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A6" s="18"/>
       <c r="B6" s="24">
         <v>3</v>
@@ -16940,7 +16938,7 @@
         <v>13.806659600000003</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A7" s="18"/>
       <c r="B7" s="24">
         <v>4</v>
@@ -16988,7 +16986,7 @@
         <v>18.730923599999997</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A8" s="18"/>
       <c r="B8" s="24">
         <v>5</v>
@@ -17036,7 +17034,7 @@
         <v>23.532080999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A9" s="18"/>
       <c r="B9" s="24">
         <v>6</v>
@@ -17084,7 +17082,7 @@
         <v>28.579451599999999</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A10" s="18"/>
       <c r="B10" s="24">
         <v>7</v>
@@ -17132,7 +17130,7 @@
         <v>34.242355199999999</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A11" s="18"/>
       <c r="B11" s="24">
         <v>8</v>
@@ -17180,7 +17178,7 @@
         <v>40.151471999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A12" s="18"/>
       <c r="B12" s="24">
         <v>9</v>
@@ -17228,7 +17226,7 @@
         <v>44.325085999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="18"/>
       <c r="B13" s="37">
         <v>10</v>
@@ -17276,7 +17274,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
         <v>9</v>
       </c>
@@ -17284,7 +17282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>11</v>
       </c>
@@ -17304,23 +17302,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5C89DF-AD6F-4AF9-A04F-9191FA8880F3}">
-  <dimension ref="D1:F17"/>
+  <dimension ref="D1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
@@ -17331,7 +17329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="78" t="s">
         <v>15</v>
       </c>
@@ -17342,7 +17340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
@@ -17353,7 +17351,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="78" t="s">
         <v>19</v>
       </c>
@@ -17364,7 +17362,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="6" t="s">
         <v>22</v>
       </c>
@@ -17375,12 +17373,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D7" s="92"/>
       <c r="E7" s="93"/>
       <c r="F7" s="94"/>
     </row>
-    <row r="8" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
@@ -17391,7 +17389,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D9" s="86" t="s">
         <v>26</v>
       </c>
@@ -17403,40 +17401,40 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D10" s="86"/>
       <c r="E10" s="75">
         <v>17.3</v>
       </c>
       <c r="F10" s="88"/>
     </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D11" s="86"/>
       <c r="E11" s="75">
         <v>17.3</v>
       </c>
       <c r="F11" s="88"/>
     </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D12" s="86"/>
       <c r="E12" s="75">
         <v>17.100000000000001</v>
       </c>
       <c r="F12" s="88"/>
     </row>
-    <row r="13" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D13" s="87"/>
       <c r="E13" s="76">
         <v>17.399999999999999</v>
       </c>
       <c r="F13" s="89"/>
     </row>
-    <row r="14" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D14" s="92"/>
       <c r="E14" s="93"/>
       <c r="F14" s="94"/>
     </row>
-    <row r="15" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="90" t="s">
         <v>27</v>
       </c>
@@ -17447,14 +17445,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D16" s="91"/>
       <c r="E16" s="17" t="s">
         <v>30</v>
       </c>
       <c r="F16" s="91"/>
     </row>
-    <row r="17" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D17" s="80">
         <f>AVERAGE(E9:E13)</f>
         <v>17.240000000000002</v>
@@ -17465,6 +17463,16 @@
       <c r="F17" s="82">
         <f>53.3-E17</f>
         <v>21.9</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E18" s="98">
+        <f>E17/1000</f>
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="F18" s="98">
+        <f>F17/1000</f>
+        <v>2.1899999999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -17484,17 +17492,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D748C01-BD89-447B-B9F4-0A879899F3EB}">
   <dimension ref="C4:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="D8" workbookViewId="0">
+    <sheetView topLeftCell="B24" workbookViewId="0">
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="3:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="53" t="s">
         <v>31</v>
       </c>
@@ -17516,7 +17524,7 @@
       <c r="K5" s="96"/>
       <c r="L5" s="97"/>
     </row>
-    <row r="6" spans="3:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="58" t="s">
         <v>34</v>
       </c>
@@ -17548,7 +17556,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C7" s="61">
         <v>920</v>
       </c>
@@ -17576,7 +17584,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="8" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C8" s="67">
         <v>940</v>
       </c>
@@ -17605,7 +17613,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="9" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C9" s="67">
         <v>1000</v>
       </c>
@@ -17634,7 +17642,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C10" s="67">
         <v>1020</v>
       </c>
@@ -17663,7 +17671,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C11" s="67">
         <v>1040</v>
       </c>
@@ -17692,7 +17700,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C12" s="67">
         <v>1100</v>
       </c>
@@ -17721,7 +17729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C13" s="67">
         <v>1120</v>
       </c>
@@ -17750,7 +17758,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="14" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C14" s="67">
         <v>1140</v>
       </c>
@@ -17779,7 +17787,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="15" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C15" s="67">
         <v>1200</v>
       </c>
@@ -17808,7 +17816,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="16" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C16" s="67">
         <v>1230</v>
       </c>
@@ -17837,7 +17845,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="17" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C17" s="67">
         <v>1300</v>
       </c>
@@ -17866,7 +17874,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="18" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C18" s="67">
         <v>1400</v>
       </c>
@@ -17895,7 +17903,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="19" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C19" s="67">
         <v>1420</v>
       </c>
@@ -17924,7 +17932,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="20" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C20" s="67">
         <v>1440</v>
       </c>
@@ -17953,7 +17961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C21" s="67">
         <v>1500</v>
       </c>
@@ -17982,7 +17990,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C22" s="67">
         <v>1520</v>
       </c>
@@ -18011,7 +18019,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C23" s="67">
         <v>1540</v>
       </c>
@@ -18040,7 +18048,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="24" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C24" s="67">
         <v>1600</v>
       </c>
@@ -18069,7 +18077,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C25" s="67">
         <v>1620</v>
       </c>
@@ -18098,7 +18106,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="26" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C26" s="67">
         <v>1640</v>
       </c>
@@ -18127,7 +18135,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="27" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C27" s="67">
         <v>1650</v>
       </c>
@@ -18156,7 +18164,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="28" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C28" s="67">
         <v>1700</v>
       </c>
@@ -18185,7 +18193,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C29" s="67">
         <v>1710</v>
       </c>
@@ -18214,7 +18222,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="30" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C30" s="67">
         <v>1720</v>
       </c>
@@ -18243,7 +18251,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="31" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C31" s="67">
         <v>1740</v>
       </c>
@@ -18272,7 +18280,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="32" spans="3:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C32" s="69">
         <v>1750</v>
       </c>
@@ -18315,19 +18323,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8CAE52-B155-4F33-9266-FEDDC3AB17BF}">
   <dimension ref="C4:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="78" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView zoomScale="78" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.28515625" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.33203125" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="5" t="s">
         <v>31</v>
       </c>
@@ -18345,7 +18353,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="6" t="s">
         <v>34</v>
       </c>
@@ -18381,7 +18389,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C7" s="15">
         <v>1020</v>
       </c>
@@ -18419,7 +18427,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C8" s="15">
         <v>1040</v>
       </c>
@@ -18457,7 +18465,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C9" s="15">
         <v>1100</v>
       </c>
@@ -18495,7 +18503,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C10" s="15">
         <v>1120</v>
       </c>
@@ -18533,7 +18541,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C11" s="15">
         <v>1140</v>
       </c>
@@ -18571,7 +18579,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C12" s="15">
         <v>1200</v>
       </c>
@@ -18609,7 +18617,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C13" s="15">
         <v>1230</v>
       </c>
@@ -18647,7 +18655,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C14" s="15">
         <v>1300</v>
       </c>
@@ -18685,7 +18693,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C15" s="15">
         <v>1400</v>
       </c>
@@ -18723,7 +18731,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C16" s="15">
         <v>1420</v>
       </c>
@@ -18761,7 +18769,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C17" s="15">
         <v>1440</v>
       </c>
@@ -18799,7 +18807,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C18" s="15">
         <v>1500</v>
       </c>
@@ -18837,7 +18845,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C19" s="15">
         <v>1520</v>
       </c>
@@ -18875,7 +18883,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C20" s="15">
         <v>1540</v>
       </c>
@@ -18913,7 +18921,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C21" s="15">
         <v>1600</v>
       </c>
@@ -18951,7 +18959,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C22" s="15">
         <v>1620</v>
       </c>
@@ -18989,7 +18997,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C23" s="15">
         <v>1640</v>
       </c>
@@ -19027,7 +19035,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C24" s="15">
         <v>1650</v>
       </c>
@@ -19065,7 +19073,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C25" s="15">
         <v>1700</v>
       </c>
@@ -19103,7 +19111,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C26" s="15">
         <v>1710</v>
       </c>
@@ -19141,7 +19149,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C27" s="15">
         <v>1720</v>
       </c>
@@ -19179,7 +19187,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C28" s="15">
         <v>1740</v>
       </c>
@@ -19217,7 +19225,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="29" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C29" s="16">
         <v>1750</v>
       </c>
@@ -19260,7 +19268,8 @@
     <mergeCell ref="E5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -19268,19 +19277,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8A136D-CAF5-4D2F-9B41-FFA2DEDA9265}">
   <dimension ref="C4:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="27" workbookViewId="0">
+    <sheetView zoomScale="27" workbookViewId="0">
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.28515625" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.33203125" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="5" t="s">
         <v>31</v>
       </c>
@@ -19298,7 +19307,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="6" t="s">
         <v>34</v>
       </c>
@@ -19334,7 +19343,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C7" s="15">
         <v>1020</v>
       </c>
@@ -19372,7 +19381,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C8" s="15">
         <v>1040</v>
       </c>
@@ -19410,7 +19419,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C9" s="15">
         <v>1100</v>
       </c>
@@ -19448,7 +19457,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C10" s="15">
         <v>1120</v>
       </c>
@@ -19486,7 +19495,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C11" s="15">
         <v>1140</v>
       </c>
@@ -19524,7 +19533,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C12" s="15">
         <v>1200</v>
       </c>
@@ -19562,7 +19571,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C13" s="15">
         <v>1230</v>
       </c>
@@ -19600,7 +19609,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C14" s="15">
         <v>1300</v>
       </c>
@@ -19638,7 +19647,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C15" s="15">
         <v>1400</v>
       </c>
@@ -19676,7 +19685,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C16" s="15">
         <v>1420</v>
       </c>
@@ -19714,7 +19723,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C17" s="15">
         <v>1440</v>
       </c>
@@ -19752,7 +19761,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C18" s="15">
         <v>1500</v>
       </c>
@@ -19790,7 +19799,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C19" s="15">
         <v>1520</v>
       </c>
@@ -19828,7 +19837,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C20" s="15">
         <v>1540</v>
       </c>
@@ -19866,7 +19875,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C21" s="15">
         <v>1600</v>
       </c>
@@ -19904,7 +19913,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C22" s="15">
         <v>1620</v>
       </c>
@@ -19942,7 +19951,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C23" s="15">
         <v>1640</v>
       </c>
@@ -19980,7 +19989,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C24" s="15">
         <v>1650</v>
       </c>
@@ -20018,7 +20027,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C25" s="15">
         <v>1700</v>
       </c>
@@ -20056,7 +20065,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C26" s="15">
         <v>1710</v>
       </c>
@@ -20094,7 +20103,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C27" s="15">
         <v>1720</v>
       </c>
@@ -20132,7 +20141,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C28" s="15">
         <v>1740</v>
       </c>
@@ -20170,7 +20179,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="29" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C29" s="16">
         <v>1750</v>
       </c>
@@ -20221,19 +20230,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E5793E-AFAB-469C-A838-F1875037A730}">
   <dimension ref="C4:N27"/>
   <sheetViews>
-    <sheetView topLeftCell="N10" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="17.85546875" customWidth="1"/>
-    <col min="12" max="13" width="13.140625" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" customWidth="1"/>
+    <col min="12" max="13" width="13.109375" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="5" t="s">
         <v>25</v>
@@ -20248,7 +20257,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="1"/>
       <c r="D6" s="14">
         <v>121</v>
@@ -20281,7 +20290,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C7" s="7"/>
       <c r="E7" s="9">
         <v>3.5</v>
@@ -20316,7 +20325,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C8" s="7"/>
       <c r="E8" s="9">
         <v>6.7</v>
@@ -20351,7 +20360,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C9" s="7"/>
       <c r="E9" s="9">
         <v>10.5</v>
@@ -20386,7 +20395,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C10" s="7"/>
       <c r="E10" s="9">
         <v>11.2</v>
@@ -20421,7 +20430,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C11" s="7"/>
       <c r="E11" s="9">
         <v>12.7</v>
@@ -20456,7 +20465,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C12" s="7"/>
       <c r="E12" s="9">
         <v>9.9</v>
@@ -20491,7 +20500,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C13" s="7"/>
       <c r="E13" s="9">
         <v>10.199999999999999</v>
@@ -20526,7 +20535,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C14" s="7"/>
       <c r="E14" s="9">
         <v>11.9</v>
@@ -20561,7 +20570,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C15" s="7"/>
       <c r="E15" s="9">
         <v>12.6</v>
@@ -20596,7 +20605,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C16" s="7"/>
       <c r="E16" s="9">
         <v>14.3</v>
@@ -20631,7 +20640,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
       <c r="E17" s="9">
         <v>16.2</v>
@@ -20666,7 +20675,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C18" s="7"/>
       <c r="E18" s="9">
         <v>15</v>
@@ -20701,7 +20710,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C19" s="7"/>
       <c r="E19" s="9">
         <v>16.899999999999999</v>
@@ -20736,7 +20745,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C20" s="7"/>
       <c r="E20" s="9">
         <v>16.7</v>
@@ -20771,7 +20780,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C21" s="7"/>
       <c r="E21" s="9">
         <v>16.100000000000001</v>
@@ -20806,7 +20815,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C22" s="7"/>
       <c r="E22" s="9">
         <v>15.9</v>
@@ -20841,7 +20850,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C23" s="7"/>
       <c r="E23" s="9">
         <v>16.5</v>
@@ -20876,7 +20885,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C24" s="7"/>
       <c r="E24" s="9">
         <v>16.2</v>
@@ -20911,7 +20920,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C25" s="7"/>
       <c r="E25" s="9">
         <v>15.8</v>
@@ -20946,7 +20955,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C26" s="7"/>
       <c r="E26" s="9">
         <v>15.8</v>
@@ -20981,7 +20990,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="27" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C27" s="7"/>
       <c r="E27" s="11">
         <v>18.2</v>
@@ -21021,6 +21030,7 @@
     <mergeCell ref="E5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>